--- a/merged_data.xlsx
+++ b/merged_data.xlsx
@@ -517,16 +517,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22972321189.26739</v>
+        <v>22950771235.97675</v>
       </c>
       <c r="D3" t="n">
-        <v>24397468079.37269</v>
+        <v>24375759418.22945</v>
       </c>
       <c r="E3" t="n">
-        <v>89585.25999999999</v>
+        <v>89718.73</v>
       </c>
       <c r="F3" t="n">
-        <v>89513.89999999999</v>
+        <v>89675</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>45709</v>

--- a/merged_data.xlsx
+++ b/merged_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,24 +481,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1741132800</v>
+        <v>1741564800</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-03-05 00:00:00</t>
+          <t>2025-03-10 00:00:00</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22831901871.55361</v>
+        <v>20838629226.83</v>
       </c>
       <c r="D2" t="n">
-        <v>24252022523.07731</v>
-      </c>
-      <c r="E2" t="n">
-        <v>90612.12</v>
-      </c>
-      <c r="F2" t="n">
-        <v>90548.10000000001</v>
+        <v>22268071183.59</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78,554.0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>78,534</t>
+        </is>
       </c>
       <c r="G2" s="2" t="n">
         <v>45708</v>
@@ -509,142 +513,34 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1741219200</v>
+        <v>1741651200</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-03-06 00:00:00</t>
+          <t>2025-03-11 00:00:00</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22950771235.97675</v>
+        <v>20928584797.11</v>
       </c>
       <c r="D3" t="n">
-        <v>24375759418.22945</v>
-      </c>
-      <c r="E3" t="n">
-        <v>89718.73</v>
-      </c>
-      <c r="F3" t="n">
-        <v>89675</v>
+        <v>22362692878.05</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80,329.0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>80,363.0</t>
+        </is>
       </c>
       <c r="G3" s="2" t="n">
         <v>45709</v>
       </c>
       <c r="H3" t="n">
         <v>42.02</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" s="2" t="n">
-        <v>45712</v>
-      </c>
-      <c r="H4" t="n">
-        <v>41.64</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" s="2" t="n">
-        <v>45713</v>
-      </c>
-      <c r="H5" t="n">
-        <v>39.04</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" s="2" t="n">
-        <v>45714</v>
-      </c>
-      <c r="H6" t="n">
-        <v>37.32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" s="2" t="n">
-        <v>45715</v>
-      </c>
-      <c r="H7" t="n">
-        <v>36.93</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" s="2" t="n">
-        <v>45716</v>
-      </c>
-      <c r="H8" t="n">
-        <v>37.33</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" s="2" t="n">
-        <v>45719</v>
-      </c>
-      <c r="H9" t="n">
-        <v>38.1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" s="2" t="n">
-        <v>45720</v>
-      </c>
-      <c r="H10" t="n">
-        <v>38.5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" s="2" t="n">
-        <v>45721</v>
-      </c>
-      <c r="H11" t="n">
-        <v>40.08</v>
       </c>
     </row>
   </sheetData>
